--- a/data/trans_dic/P2A_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P2A_R-Estudios-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.7311811428128987</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.5891174120612802</v>
+        <v>0.5891174120612801</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.8074782001120596</v>
@@ -685,7 +685,7 @@
         <v>0.8610650810585769</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.7000301590675936</v>
+        <v>0.7000301590675937</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.7535299523327361</v>
@@ -697,7 +697,7 @@
         <v>0.8050461325505045</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.6542156612503451</v>
+        <v>0.654215661250345</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.6546558519243634</v>
+        <v>0.6554576406372133</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.7409264013590084</v>
+        <v>0.7397955519845164</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.6992392457885848</v>
+        <v>0.6994569587722496</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.5469473731052459</v>
+        <v>0.5508159518529244</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.7840709417270885</v>
+        <v>0.7849035120059551</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.8526639095564522</v>
+        <v>0.8515054299591888</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.8347418823694671</v>
+        <v>0.8400029236094444</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.6734585319407712</v>
+        <v>0.6766177361725093</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.7332440131475514</v>
+        <v>0.7348665686466104</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.8118749778805175</v>
+        <v>0.8115464560748932</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.7869353608473422</v>
+        <v>0.7862719912326847</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.6295178489252314</v>
+        <v>0.6307473035248852</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.7138978656284822</v>
+        <v>0.713201671727433</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.793415389009941</v>
+        <v>0.7956295075887346</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.7628948582699385</v>
+        <v>0.7621820945490461</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.6271393063648265</v>
+        <v>0.6283830861725225</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.8290967245847377</v>
+        <v>0.8272230123934374</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.8900952846088813</v>
+        <v>0.8913394293038036</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.8803942302153364</v>
+        <v>0.8820083200319968</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.7234693378589024</v>
+        <v>0.7263983532750206</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.7700873070430262</v>
+        <v>0.7708582662335205</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.8450030027082778</v>
+        <v>0.843343722260653</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.8236958156912791</v>
+        <v>0.8227592849147942</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.6762315213078133</v>
+        <v>0.6783342471005586</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.5690733820002363</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.4109827547570785</v>
+        <v>0.4109827547570784</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.4566286119789587</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.3613544747706378</v>
+        <v>0.3615098633247161</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.4492860949261301</v>
+        <v>0.4481493926314054</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.4562753061967618</v>
+        <v>0.4562629675191222</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.3457438875222294</v>
+        <v>0.3470183389627912</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.5078636084398741</v>
+        <v>0.5072519747652808</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.5707920702645464</v>
+        <v>0.5674379254090224</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.5457716566294518</v>
+        <v>0.5461421627541316</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.3920835798143618</v>
+        <v>0.3922084568312144</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.439387714589092</v>
+        <v>0.439686732652181</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.5116403605474437</v>
+        <v>0.5119483511904931</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.5060956771838596</v>
+        <v>0.5061801537992116</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.3740115154625703</v>
+        <v>0.3744046367924385</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.4078060825502988</v>
+        <v>0.4107636546276657</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.495321701201004</v>
+        <v>0.493997296308315</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.5004661977291728</v>
+        <v>0.5020882768078448</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3926039102977422</v>
+        <v>0.3931499396821838</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.5565281223681605</v>
+        <v>0.558416149086487</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.6178257483291043</v>
+        <v>0.6161002025676958</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.5913837876591205</v>
+        <v>0.5905887789333271</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.4305073080015194</v>
+        <v>0.4299698461995531</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.4743273237672763</v>
+        <v>0.4763917954235135</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.5456730826698249</v>
+        <v>0.5457377123521657</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.5374039825916341</v>
+        <v>0.5385070814449974</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.4040285139690344</v>
+        <v>0.4052080827213526</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +969,7 @@
         <v>0.4443542392955629</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.3389695933438329</v>
+        <v>0.3389695933438328</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.3533887574337417</v>
+        <v>0.3533480513304676</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.4298684448975046</v>
+        <v>0.4277221552336771</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3646798058646107</v>
+        <v>0.3658605823992443</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2931639001476219</v>
+        <v>0.2888594033088013</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.4780903828980663</v>
+        <v>0.4768526670720156</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.4941357311366408</v>
+        <v>0.4925406049396479</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.4391022184585478</v>
+        <v>0.4346789883588032</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.3197448258197539</v>
+        <v>0.3181151939430921</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.4243472640650378</v>
+        <v>0.4275098263819065</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.4718341107245963</v>
+        <v>0.4734124783668492</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.4136514461118708</v>
+        <v>0.4135663262627402</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.3151275239360068</v>
+        <v>0.313073320706042</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4363643059403797</v>
+        <v>0.4375717123872728</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.5254703577846461</v>
+        <v>0.5225944376550234</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.4510433892397345</v>
+        <v>0.4557695347024877</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.3688460867235432</v>
+        <v>0.3607062433593307</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.5699197752997738</v>
+        <v>0.5749450245547408</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.5918687486456982</v>
+        <v>0.5908700835781</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.5276240338929264</v>
+        <v>0.5272674855055587</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.381220909330343</v>
+        <v>0.3810902204537618</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.4863193638904683</v>
+        <v>0.4876171197274024</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.5389871921264749</v>
+        <v>0.5430986353765446</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.4744553611587492</v>
+        <v>0.4755209980550823</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.3629746369999202</v>
+        <v>0.3648290533714564</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.5229617601437573</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.3964742113919594</v>
+        <v>0.3964742113919593</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.6383305878113095</v>
@@ -1105,7 +1105,7 @@
         <v>0.5816855430293388</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.4306005607692214</v>
+        <v>0.4306005607692215</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.4628732124690057</v>
+        <v>0.4649392775666743</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.5391687333252978</v>
+        <v>0.5397015095457658</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.5064340964777957</v>
+        <v>0.5038193489338837</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.378031467681277</v>
+        <v>0.3770043522805016</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.6201545164417686</v>
+        <v>0.6227361707410726</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.6773413081741791</v>
+        <v>0.6755906581709032</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.6212866707412201</v>
+        <v>0.6226550908371964</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.4478965739705947</v>
+        <v>0.4491647496838843</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.5484772876512933</v>
+        <v>0.5499117436912321</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.6133652211389504</v>
+        <v>0.6142091480522799</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.5696587062929892</v>
+        <v>0.5695773640302393</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.4192122572618137</v>
+        <v>0.4191903551834406</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.4980636854765476</v>
+        <v>0.5010263420372424</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5731542317898169</v>
+        <v>0.5744666552158446</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.5422550892910034</v>
+        <v>0.5393270050221949</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.4165182821357748</v>
+        <v>0.4150717186148934</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.6527030235810997</v>
+        <v>0.654162740395743</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.7085117360439679</v>
+        <v>0.7083821744467236</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.6543185842826253</v>
+        <v>0.6549049789113488</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.4775642564666271</v>
+        <v>0.4775241259388014</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.5731592627590186</v>
+        <v>0.5736641993934636</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.6376462866790206</v>
+        <v>0.6381460623734703</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.5931560254135831</v>
+        <v>0.5939893002401859</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.4415054581043861</v>
+        <v>0.4428236179854369</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>675423</v>
+        <v>676251</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>722139</v>
+        <v>721037</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>527469</v>
+        <v>527633</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>316425</v>
+        <v>318663</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1031142</v>
+        <v>1032237</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1140691</v>
+        <v>1139141</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>830284</v>
+        <v>835517</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>553609</v>
+        <v>556205</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>1720803</v>
+        <v>1724611</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>1877412</v>
+        <v>1876652</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>1376355</v>
+        <v>1375195</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>881682</v>
+        <v>883404</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>736545</v>
+        <v>735827</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>773297</v>
+        <v>775455</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>575487</v>
+        <v>574950</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>362818</v>
+        <v>363538</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>1090356</v>
+        <v>1087892</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>1190767</v>
+        <v>1192431</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>875693</v>
+        <v>877298</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>594719</v>
+        <v>597127</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>1807268</v>
+        <v>1809077</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>1954019</v>
+        <v>1950182</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>1440650</v>
+        <v>1439012</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>947108</v>
+        <v>950053</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>611922</v>
+        <v>612186</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>882379</v>
+        <v>880146</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>947403</v>
+        <v>947378</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>771205</v>
+        <v>774047</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>806321</v>
+        <v>805350</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>1003340</v>
+        <v>997444</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>1085158</v>
+        <v>1085894</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>851367</v>
+        <v>851638</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>1441669</v>
+        <v>1442650</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>1904203</v>
+        <v>1905349</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>2057120</v>
+        <v>2057463</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>1646383</v>
+        <v>1648114</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>690584</v>
+        <v>695593</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>972791</v>
+        <v>970189</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>1039161</v>
+        <v>1042529</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>875729</v>
+        <v>876947</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>883585</v>
+        <v>886582</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>1086016</v>
+        <v>1082983</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>1175848</v>
+        <v>1174268</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>934800</v>
+        <v>933633</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>1556309</v>
+        <v>1563082</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>2030864</v>
+        <v>2031105</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>2184378</v>
+        <v>2188862</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>1778517</v>
+        <v>1783709</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>194861</v>
+        <v>194839</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>206845</v>
+        <v>205812</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>199438</v>
+        <v>200084</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>208612</v>
+        <v>205549</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>227768</v>
+        <v>227178</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>226626</v>
+        <v>225894</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>241129</v>
+        <v>238700</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>234973</v>
+        <v>233776</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>436153</v>
+        <v>439403</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>443436</v>
+        <v>444919</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>453373</v>
+        <v>453280</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>455821</v>
+        <v>452849</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>240615</v>
+        <v>241281</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>252846</v>
+        <v>251463</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>246669</v>
+        <v>249254</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>262466</v>
+        <v>256674</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>271517</v>
+        <v>273911</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>271449</v>
+        <v>270991</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>289739</v>
+        <v>289544</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>280150</v>
+        <v>280054</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>499849</v>
+        <v>501183</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>506547</v>
+        <v>510411</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>520016</v>
+        <v>521184</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>525030</v>
+        <v>527712</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>1516624</v>
+        <v>1523394</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>1843840</v>
+        <v>1845662</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1710541</v>
+        <v>1701709</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>1330929</v>
+        <v>1327313</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>2095624</v>
+        <v>2104348</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>2407427</v>
+        <v>2401205</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>2194447</v>
+        <v>2199280</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1669896</v>
+        <v>1674624</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>3650523</v>
+        <v>3660070</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>4277616</v>
+        <v>4283502</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>3936181</v>
+        <v>3935619</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>3038865</v>
+        <v>3038707</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>1631927</v>
+        <v>1641634</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>1960063</v>
+        <v>1964551</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1831531</v>
+        <v>1821641</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>1466429</v>
+        <v>1461336</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>2205612</v>
+        <v>2210545</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>2518214</v>
+        <v>2517753</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>2311119</v>
+        <v>2313190</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>1780506</v>
+        <v>1780357</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>3814800</v>
+        <v>3818160</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>4446953</v>
+        <v>4450438</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>4098541</v>
+        <v>4104299</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>3200469</v>
+        <v>3210024</v>
       </c>
     </row>
     <row r="20">
